--- a/Excel/CallHeroConfig.xlsx
+++ b/Excel/CallHeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AB8BBF-8ADB-46A0-AD8E-8536EF1450C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DDE746-0F74-4B38-8695-1D3561A5E424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>技能的序号</t>
   </si>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>ItemCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以产出的英雄品质卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroQuality</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +490,7 @@
   <dimension ref="C2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -517,7 +525,9 @@
       <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -539,7 +549,9 @@
       <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -561,7 +573,9 @@
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -583,7 +597,9 @@
       <c r="G6">
         <v>100</v>
       </c>
-      <c r="H6"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -605,6 +621,9 @@
       <c r="G7">
         <v>400</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="3:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C8">
@@ -622,7 +641,9 @@
       <c r="G8">
         <v>800</v>
       </c>
-      <c r="H8"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -644,7 +665,9 @@
       <c r="G9">
         <v>3000</v>
       </c>
-      <c r="H9"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -666,7 +689,9 @@
       <c r="G10">
         <v>5000</v>
       </c>
-      <c r="H10"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -688,7 +713,9 @@
       <c r="G11">
         <v>8000</v>
       </c>
-      <c r="H11"/>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
